--- a/OldMutual/Output/SmartReportMatchStatus.xlsx
+++ b/OldMutual/Output/SmartReportMatchStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53902E-2FAC-4E49-BC85-1CA1756C28D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD12375-9ECC-42CB-83F5-B48C615A35A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{A29940D9-6E34-4275-B560-0F88990B39B7}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{EE4107EE-2488-4901-A5E4-26E5640AC986}"/>
   </bookViews>
   <sheets>
     <sheet name="SmartInvAmountNotMatched" sheetId="5" r:id="rId1"/>
@@ -31588,7 +31588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427A7AE5-D5A2-4515-8F11-72F06CF76F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB860A95-786F-4776-9281-6A481DE13A70}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31657,7 +31657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC76E13-F5DF-4241-9641-148A6DA551BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92667A-C1DD-4BE4-B858-922DFBC374A7}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31726,7 +31726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A3EC4-A559-4FEF-97B6-C53CAEABD6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A618A0-0BD9-49ED-A62A-D9D3A259E989}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31795,7 +31795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71D621B-EBBC-4830-B1BB-8824BC153036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31123487-12C9-4589-9CB0-902D61042EAD}">
   <dimension ref="A1:Q461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -55321,7 +55321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9738F6-663E-4975-AF8B-2390065A3DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1848A9E3-40D3-40C4-948A-23CA799F02AB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
